--- a/src/demo/zxxt_demo_130_b-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_130_b-xlsx.w3mi.data.xlsx
@@ -66,7 +66,7 @@
 Covert result to double</t>
   </si>
   <si>
-    <t>№</t>
+    <t>Pos.</t>
   </si>
   <si>
     <t>{R-T;cond=sy-tabix;type=integer}</t>
